--- a/scripts/spreadsheets_translated/translations_fr.xlsx
+++ b/scripts/spreadsheets_translated/translations_fr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,304 +628,457 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>join-the-conversation-form-label</t>
+          <t>how-it-works-alt-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Give us your email. We'll notify you when topics open.</t>
+          <t>An icon of a group of people</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Donnez-nous votre adresse e-mail. Nous vous notifierons lorsque les sujets seront disponibles.</t>
+          <t>Engaged California</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>back-to-top</t>
+          <t>how-it-works-alt-2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Back to top</t>
+          <t>An icon of a government building</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Haut de page</t>
+          <t>Engaged California</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>email-label</t>
+          <t>join-the-conversation-form-label</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Give us your email. We’ll notify you when topics open.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Adresse e-mail</t>
+          <t>Donnez-nous votre adresse e-mail. Nous vous notifierons lorsque les sujets seront disponibles.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>required-label</t>
+          <t>back-to-top</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Required field</t>
+          <t>Back to top</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Champ requis</t>
+          <t>Haut de page</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>valid-email-message</t>
+          <t>email-label</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Please enter a valid email address.</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Veuillez entrer une adresse e-mail valide.</t>
+          <t>Adresse e-mail</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>valid-email-message-2</t>
+          <t>required-label</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Email addresses should contain a "@" and a "."</t>
+          <t>Required field</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Les adresses e-mail doivent contenir un "@" et un "."</t>
+          <t>Champ requis</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>form-problem-message</t>
+          <t>topics-interests-label</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>We're sorry, there's a problem with our form.</t>
+          <t>Tell us what you’re interested in</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nous sommes désolés, il y a un problème avec notre formulaire.</t>
+          <t>Tell us what you’re interested in</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>form-problem-message-2</t>
+          <t>topic-future-topics</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Please try again later.</t>
+          <t>Future topics</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Veuillez réessayer plus tard.</t>
+          <t>Future topics</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>form-submit-button</t>
+          <t>topic-los-angeles-fires-recovery-palisades</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sign up now</t>
+          <t>Los Angeles fires recovery: Palisades</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Inscrivez-vous maintenant</t>
+          <t>Los Angeles fires recovery: Palisades</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>form-success-message</t>
+          <t>topic-los-angeles-fires-recovery-eaton</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Your subscription is confirmed.</t>
+          <t>Los Angeles fires recovery: Eaton</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Votre inscription est confirmée.</t>
+          <t>Los Angeles fires recovery: Eaton</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>form-success-message-2</t>
+          <t>valid-email-message</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Thank you for signing up! Look out for news and updates.</t>
+          <t>Please enter a valid email address.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Merci pour votre inscription ! Restez à l'écoute des nouvelles et des mises à jour.</t>
+          <t>Veuillez entrer une adresse e-mail valide.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>privacy-policy</t>
+          <t>valid-email-message-2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Privacy policy</t>
+          <t>Email addresses should contain a "@" and a "."</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Politique de confidentialité</t>
+          <t>Les adresses e-mail doivent contenir un "@" et un "."</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>website-accessibility-certification</t>
+          <t>form-problem-message</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Accessibility</t>
+          <t>We're sorry, there's a problem with our form.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Certification de l'accessibilité du site web</t>
+          <t>Nous sommes désolés, il y a un problème avec notre formulaire.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>form-privacy-message</t>
+          <t>form-problem-message-2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>We take your &lt;a href="/privacy"&gt;privacy&lt;/a&gt; seriously.</t>
+          <t>Please try again later.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nous prendrons votre &lt;a href="/fr/privacy"&gt;privacité&lt;/a&gt; très au sérieux.</t>
+          <t>Veuillez réessayer plus tard.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>form-privacy-message-2</t>
+          <t>form-submit-button</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>You can unsubscribe at any time.</t>
+          <t>Sign up now</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Vous pouvez vous désabonner à tout moment.</t>
+          <t>Inscrivez-vous maintenant</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>about-this-program</t>
+          <t>form-success-message</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>About the program</t>
+          <t>Your subscription is confirmed.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>À propos de ce programme</t>
+          <t>Votre inscription est confirmée.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>conditions-of-use</t>
+          <t>form-success-message-2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Conditions of use</t>
+          <t>Thank you for signing up! Look out for news and updates.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Conditions d'utilisation</t>
+          <t>Merci pour votre inscription ! Restez à l'écoute des nouvelles et des mises à jour.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>privacy-policy</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Privacy policy</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Politique de confidentialité</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>website-accessibility-certification</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Accessibility</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Certification de l'accessibilité du site web</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>form-privacy-message</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>We take your &lt;a href="/privacy"&gt;privacy&lt;/a&gt; seriously.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nous prendrons votre &lt;a href="/fr/privacy"&gt;privacité&lt;/a&gt; très au sérieux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>form-privacy-message-2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>You can unsubscribe at any time.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Vous pouvez vous désabonner à tout moment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>home-alt-header</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Circles with thumbs up, text bubble, and exclamation point</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Circles with thumbs up, text bubble, and exclamation point</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>home-alt-header-about</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Circles with exclamation point and question mark</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Circles with exclamation point and question mark</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>about-alt-header</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Circles with megaphone, microphone, and chat bubbles</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Circles with megaphone, microphone, and chat bubbles</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>about-this-program</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>About the program</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>À propos de ce programme</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>conditions-of-use</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Conditions of use</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Conditions d'utilisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>sitemap</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Sitemap</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Plan du site</t>
         </is>
